--- a/domReports.xlsx
+++ b/domReports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Advisor Name</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>IUGHIUHIuhiuo</t>
+  </si>
+  <si>
+    <t>iugiu</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>uyf</t>
+  </si>
+  <si>
+    <t>iuvu</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>bjkg</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -86,11 +113,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.4375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.78515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.14453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.78125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.5078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.30078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.27734375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -124,6 +163,134 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
